--- a/ExcelFile/Stage.xlsx
+++ b/ExcelFile/Stage.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AltarGuard\Assets\ExcelFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gwi Hyeon KIm\Desktop\AlterGaurd_ver_0.0\AltarGaurd\Assets\ExcelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D37392-9AE6-4F43-87CD-45D0443572A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027B2A31-0EE4-403D-96CA-CCF12CEB3FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2565" yWindow="0" windowWidth="21420" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stage" sheetId="1" r:id="rId1"/>
@@ -998,7 +998,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
